--- a/Project_Files/testing2/meta.xlsx
+++ b/Project_Files/testing2/meta.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internal\Tabulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internal\Tabulation\Project_Files\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF1396-7C69-4327-8ABC-6E4F8CEA5FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E747D77A-47DB-482D-9476-B652DB000DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="value_label" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$89</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="370">
   <si>
     <t>Var_Name</t>
   </si>
@@ -46,12 +44,21 @@
     <t>Add_Question_Type</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>E31</t>
   </si>
   <si>
+    <t>E31: Date Picker</t>
+  </si>
+  <si>
     <t>E11</t>
   </si>
   <si>
+    <t>E11: Single select</t>
+  </si>
+  <si>
     <t>E10r1</t>
   </si>
   <si>
@@ -70,9 +77,15 @@
     <t>E8</t>
   </si>
   <si>
+    <t>E8: Open end</t>
+  </si>
+  <si>
     <t>Q4</t>
   </si>
   <si>
+    <t>Q4: Numeric</t>
+  </si>
+  <si>
     <t>E17r1</t>
   </si>
   <si>
@@ -193,491 +206,949 @@
     <t>E14r1</t>
   </si>
   <si>
+    <t>E14r1: Customer Support - Open end grid</t>
+  </si>
+  <si>
     <t>E14r2</t>
   </si>
   <si>
+    <t>E14r2: Product Quality - Open end grid</t>
+  </si>
+  <si>
     <t>E14r3</t>
   </si>
   <si>
+    <t>E14r3: Delivery Speed - Open end grid</t>
+  </si>
+  <si>
     <t>E14r4</t>
   </si>
   <si>
+    <t>E14r4: Website Usability - Open end grid</t>
+  </si>
+  <si>
     <t>E13r1</t>
   </si>
   <si>
+    <t>E13r1: Petrol - Numeric grid</t>
+  </si>
+  <si>
     <t>E13r2</t>
   </si>
   <si>
+    <t>E13r2: Electricity Bill - Numeric grid</t>
+  </si>
+  <si>
     <t>E13r3</t>
   </si>
   <si>
+    <t>E13r3: Water Bill - Numeric grid</t>
+  </si>
+  <si>
     <t>E13r4</t>
   </si>
   <si>
+    <t>E13r4: Vegetables - Numeric grid</t>
+  </si>
+  <si>
     <t>E13r5</t>
   </si>
   <si>
+    <t>E13r5: Groceries - Numeric grid</t>
+  </si>
+  <si>
     <t>E22</t>
   </si>
   <si>
+    <t>E22: 5 points scale rating</t>
+  </si>
+  <si>
     <t>E26r6</t>
   </si>
   <si>
+    <t>E26r6: Row 1 - 5 points scale rating grid</t>
+  </si>
+  <si>
     <t>E26r7</t>
   </si>
   <si>
+    <t>E26r7: Row 2 - 5 points scale rating grid</t>
+  </si>
+  <si>
     <t>E26r8</t>
   </si>
   <si>
+    <t>E26r8: Row 3 - 5 points scale rating grid</t>
+  </si>
+  <si>
     <t>E23</t>
   </si>
   <si>
+    <t>E23: 7 points scale rating</t>
+  </si>
+  <si>
     <t>E27r1</t>
   </si>
   <si>
+    <t>E27r1: Row 1 - 7 points scale rating grid</t>
+  </si>
+  <si>
     <t>E27r2</t>
   </si>
   <si>
+    <t>E27r2: Row 2 - 7 points scale rating grid</t>
+  </si>
+  <si>
     <t>E27r3</t>
   </si>
   <si>
+    <t>E27r3: Row 3 - 7 points scale rating grid</t>
+  </si>
+  <si>
     <t>E24</t>
   </si>
   <si>
+    <t>E24: 10 points scale rating</t>
+  </si>
+  <si>
     <t>E28r1</t>
   </si>
   <si>
+    <t>E28r1: Row 1 - 10 points scale rating grid</t>
+  </si>
+  <si>
     <t>E28r2</t>
   </si>
   <si>
+    <t>E28r2: Row 2 - 10 points scale rating grid</t>
+  </si>
+  <si>
     <t>E28r3</t>
   </si>
   <si>
+    <t>E28r3: Row 3 - 10 points scale rating grid</t>
+  </si>
+  <si>
     <t>E6r1</t>
   </si>
   <si>
+    <t>E6r1: LINE - Top 3 Rank</t>
+  </si>
+  <si>
     <t>E6r2</t>
   </si>
   <si>
+    <t>E6r2: WhatsApp - Top 3 Rank</t>
+  </si>
+  <si>
     <t>E6r3</t>
   </si>
   <si>
+    <t>E6r3: Any other messenger (WeChat, messenger etc.) - Top 3 Rank</t>
+  </si>
+  <si>
     <t>E6r4</t>
   </si>
   <si>
+    <t>E6r4: Facebook - Top 3 Rank</t>
+  </si>
+  <si>
     <t>E6r5</t>
   </si>
   <si>
+    <t>E6r5: Other social media - Instagram - Top 3 Rank</t>
+  </si>
+  <si>
     <t>E6r6</t>
   </si>
   <si>
+    <t>E6r6: YouTube - Top 3 Rank</t>
+  </si>
+  <si>
     <t>E6r7</t>
   </si>
   <si>
+    <t>E6r7: Google and other search engines - Top 3 Rank</t>
+  </si>
+  <si>
     <t>E25r1c1</t>
   </si>
   <si>
+    <t>E25r1c1: Columns 1 - Row 1 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E25r1c2</t>
   </si>
   <si>
+    <t>E25r1c2: Columns 2 - Row 1 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E25r2c1</t>
   </si>
   <si>
+    <t>E25r2c1: Columns 1 - Row 2 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E25r2c2</t>
   </si>
   <si>
+    <t>E25r2c2: Columns 2 - Row 2 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E25r3c1</t>
   </si>
   <si>
+    <t>E25r3c1: Columns 1 - Row 3 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E25r3c2</t>
   </si>
   <si>
+    <t>E25r3c2: Columns 2 - Row 3 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E25r4c1</t>
   </si>
   <si>
+    <t>E25r4c1: Columns 1 - Row 4 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E25r4c2</t>
   </si>
   <si>
+    <t>E25r4c2: Columns 2 - Row 4 - Multi column dropdown</t>
+  </si>
+  <si>
     <t>E29</t>
   </si>
   <si>
+    <t>E29: Net Promoter Score (NPS)</t>
+  </si>
+  <si>
     <t>E30r1</t>
   </si>
   <si>
+    <t>E30r1: Row 1 - Net Promoter Score (NPS) grid</t>
+  </si>
+  <si>
     <t>E30r2</t>
   </si>
   <si>
+    <t>E30r2: Row 2 - Net Promoter Score (NPS) grid</t>
+  </si>
+  <si>
     <t>E30r3</t>
   </si>
   <si>
-    <t>E31: Date Picker</t>
-  </si>
-  <si>
-    <t>E11: Single select</t>
-  </si>
-  <si>
-    <t>E8: Open end</t>
-  </si>
-  <si>
-    <t>Q4: Numeric</t>
-  </si>
-  <si>
-    <t>E14r1: Customer Support - Open end grid</t>
-  </si>
-  <si>
-    <t>E14r2: Product Quality - Open end grid</t>
-  </si>
-  <si>
-    <t>E14r3: Delivery Speed - Open end grid</t>
-  </si>
-  <si>
-    <t>E14r4: Website Usability - Open end grid</t>
-  </si>
-  <si>
-    <t>E13r1: Petrol - Numeric grid</t>
-  </si>
-  <si>
-    <t>E13r2: Electricity Bill - Numeric grid</t>
-  </si>
-  <si>
-    <t>E13r3: Water Bill - Numeric grid</t>
-  </si>
-  <si>
-    <t>E13r4: Vegetables - Numeric grid</t>
-  </si>
-  <si>
-    <t>E13r5: Groceries - Numeric grid</t>
-  </si>
-  <si>
-    <t>E22: 5 points scale rating</t>
-  </si>
-  <si>
-    <t>E26r6: Row 1 - 5 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E26r7: Row 2 - 5 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E26r8: Row 3 - 5 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E23: 7 points scale rating</t>
-  </si>
-  <si>
-    <t>E27r1: Row 1 - 7 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E27r2: Row 2 - 7 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E27r3: Row 3 - 7 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E24: 10 points scale rating</t>
-  </si>
-  <si>
-    <t>E28r1: Row 1 - 10 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E28r2: Row 2 - 10 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E28r3: Row 3 - 10 points scale rating grid</t>
-  </si>
-  <si>
-    <t>E6r1: LINE - Top 3 Rank</t>
-  </si>
-  <si>
-    <t>E6r2: WhatsApp - Top 3 Rank</t>
-  </si>
-  <si>
-    <t>E6r3: Any other messenger (WeChat, messenger etc.) - Top 3 Rank</t>
-  </si>
-  <si>
-    <t>E6r4: Facebook - Top 3 Rank</t>
-  </si>
-  <si>
-    <t>E6r5: Other social media - Instagram - Top 3 Rank</t>
-  </si>
-  <si>
-    <t>E6r6: YouTube - Top 3 Rank</t>
-  </si>
-  <si>
-    <t>E6r7: Google and other search engines - Top 3 Rank</t>
-  </si>
-  <si>
-    <t>E25r1c1: Columns 1 - Row 1 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E25r1c2: Columns 2 - Row 1 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E25r2c1: Columns 1 - Row 2 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E25r2c2: Columns 2 - Row 2 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E25r3c1: Columns 1 - Row 3 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E25r3c2: Columns 2 - Row 3 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E25r4c1: Columns 1 - Row 4 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E25r4c2: Columns 2 - Row 4 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t>E29: Net Promoter Score (NPS)</t>
-  </si>
-  <si>
-    <t>E30r1: Row 1 - Net Promoter Score (NPS) grid</t>
-  </si>
-  <si>
-    <t>E30r2: Row 2 - Net Promoter Score (NPS) grid</t>
-  </si>
-  <si>
     <t>E30r3: Row 3 - Net Promoter Score (NPS) grid</t>
   </si>
   <si>
+    <t>vlist</t>
+  </si>
+  <si>
+    <t>vlist: Participant source</t>
+  </si>
+  <si>
+    <t>qtime</t>
+  </si>
+  <si>
+    <t>qtime: Total Interview Time</t>
+  </si>
+  <si>
+    <t>vos</t>
+  </si>
+  <si>
+    <t>vos: Operating System</t>
+  </si>
+  <si>
+    <t>vosr15oe</t>
+  </si>
+  <si>
+    <t>vosr15oe: Operating System - Other</t>
+  </si>
+  <si>
+    <t>vbrowser</t>
+  </si>
+  <si>
+    <t>vbrowser: Browser</t>
+  </si>
+  <si>
+    <t>vbrowserr15oe</t>
+  </si>
+  <si>
+    <t>vbrowserr15oe: Browser - Other</t>
+  </si>
+  <si>
+    <t>vmobiledevice</t>
+  </si>
+  <si>
+    <t>vmobiledevice: Mobile device category</t>
+  </si>
+  <si>
+    <t>vmobileos</t>
+  </si>
+  <si>
+    <t>vmobileos: Mobile OS</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>start_date: Survey start time</t>
+  </si>
+  <si>
+    <t>vdropout</t>
+  </si>
+  <si>
+    <t>vdropout: Last seen question</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>source: Captured variable</t>
+  </si>
+  <si>
+    <t>decLang</t>
+  </si>
+  <si>
+    <t>decLang: Captured variable</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>list: Captured variable</t>
+  </si>
+  <si>
+    <t>userAgent</t>
+  </si>
+  <si>
+    <t>userAgent: Captured variable</t>
+  </si>
+  <si>
+    <t>dcua</t>
+  </si>
+  <si>
+    <t>dcua: Captured variable</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>url: Captured variable</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>session: Captured variable</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Overquota</t>
+  </si>
+  <si>
+    <t>Qualified</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>NO TO: Family</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>NO TO: Education</t>
+  </si>
+  <si>
+    <t>NO TO: Health and fitness</t>
+  </si>
+  <si>
+    <t>Health and fitness</t>
+  </si>
+  <si>
+    <t>NO TO: Financial stability</t>
+  </si>
+  <si>
+    <t>Financial stability</t>
+  </si>
+  <si>
+    <t>NO TO: Social life</t>
+  </si>
+  <si>
+    <t>Social life</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>A few times a week</t>
+  </si>
+  <si>
+    <t>Once a week</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>NO TO: Amazon</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>NO TO: ASOS</t>
+  </si>
+  <si>
+    <t>ASOS</t>
+  </si>
+  <si>
+    <t>NO TO: Barnes &amp; Noble</t>
+  </si>
+  <si>
+    <t>Barnes &amp; Noble</t>
+  </si>
+  <si>
+    <t>NO TO: Flipkart</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>NO TO: Myntra</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>NO TO: JioMart</t>
+  </si>
+  <si>
+    <t>JioMart</t>
+  </si>
+  <si>
+    <t>NO TO: Pepperfry</t>
+  </si>
+  <si>
+    <t>Pepperfry</t>
+  </si>
+  <si>
+    <t>Very Dissatisfied</t>
+  </si>
+  <si>
+    <t>Dissatisfied</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Very Satisfied</t>
+  </si>
+  <si>
+    <t>Extremely Unlikely</t>
+  </si>
+  <si>
+    <t>Very Unlikely</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Likely</t>
+  </si>
+  <si>
+    <t>Very Likely</t>
+  </si>
+  <si>
+    <t>Extremely Likely</t>
+  </si>
+  <si>
+    <t>Somewhat Unlikely</t>
+  </si>
+  <si>
+    <t>Slightly Unlikely</t>
+  </si>
+  <si>
+    <t>Slightly Likely</t>
+  </si>
+  <si>
+    <t>Somewhat Likely</t>
+  </si>
+  <si>
+    <t>Rank 1</t>
+  </si>
+  <si>
+    <t>Rank 2</t>
+  </si>
+  <si>
+    <t>Rank 3</t>
+  </si>
+  <si>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>DD3</t>
+  </si>
+  <si>
+    <t>Open Survey (list=0)</t>
+  </si>
+  <si>
+    <t>Windows 95</t>
+  </si>
+  <si>
+    <t>Windows 98</t>
+  </si>
+  <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
+  </si>
+  <si>
+    <t>Windows Vista</t>
+  </si>
+  <si>
+    <t>Windows 2003</t>
+  </si>
+  <si>
+    <t>Windows XP</t>
+  </si>
+  <si>
+    <t>Windows 2000</t>
+  </si>
+  <si>
+    <t>Microsoft Windows NT 4.0</t>
+  </si>
+  <si>
+    <t>Windows ME</t>
+  </si>
+  <si>
+    <t>iPhone/iPad</t>
+  </si>
+  <si>
+    <t>Mac OS X or older</t>
+  </si>
+  <si>
+    <t>Other Mobile</t>
+  </si>
+  <si>
+    <t>Linux, UNIX</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>MS Edge</t>
+  </si>
+  <si>
+    <t>MSIE 11</t>
+  </si>
+  <si>
+    <t>MSIE 10.x</t>
+  </si>
+  <si>
+    <t>MSIE 9.x</t>
+  </si>
+  <si>
+    <t>MSIE 8.x</t>
+  </si>
+  <si>
+    <t>MSIE 7.x</t>
+  </si>
+  <si>
+    <t>MSIE 6.x</t>
+  </si>
+  <si>
+    <t>MSIE 5.x or older</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Other Mozilla or Netscape</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Text Browser</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Featurephone</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Other mobile</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Symbian</t>
+  </si>
+  <si>
+    <t>Windows Phone</t>
+  </si>
+  <si>
+    <t>Blackberry</t>
+  </si>
+  <si>
+    <t>Other/Desktop</t>
+  </si>
+  <si>
+    <t>(E31) Date Picker</t>
+  </si>
+  <si>
+    <t>(E11) Single select</t>
+  </si>
+  <si>
+    <t>(E10) Multi select</t>
+  </si>
+  <si>
+    <t>(E8) Open end</t>
+  </si>
+  <si>
+    <t>(Q4) Numeric</t>
+  </si>
+  <si>
+    <t>(E17) Single select grid</t>
+  </si>
+  <si>
+    <t>(E12) Multi select grid</t>
+  </si>
+  <si>
+    <t>(E14) Open end grid</t>
+  </si>
+  <si>
+    <t>(E13) Numeric grid</t>
+  </si>
+  <si>
+    <t>(E22) 5 points scale rating</t>
+  </si>
+  <si>
+    <t>(E26) 5 points scale rating grid</t>
+  </si>
+  <si>
+    <t>(E23) 7 points scale rating</t>
+  </si>
+  <si>
+    <t>(E27) 7 points scale rating grid</t>
+  </si>
+  <si>
+    <t>(E24) 10 points scale rating</t>
+  </si>
+  <si>
+    <t>(E28) 10 points scale rating grid</t>
+  </si>
+  <si>
+    <t>(E6) Top 3 Rank</t>
+  </si>
+  <si>
+    <t>(E25) Multi column dropdown</t>
+  </si>
+  <si>
+    <t>(E29) Net Promoter Score (NPS)</t>
+  </si>
+  <si>
+    <t>(E30) Net Promoter Score (NPS) grid</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Date Picker</t>
   </si>
   <si>
+    <t>OE</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Single select</t>
   </si>
   <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family</t>
+  </si>
+  <si>
+    <t>E10:Multi select</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Health and fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Social life</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Open end</t>
   </si>
   <si>
     <t xml:space="preserve"> Numeric</t>
   </si>
   <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exercise</t>
+  </si>
+  <si>
+    <t>Single select grid</t>
+  </si>
+  <si>
+    <t>SRG</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watching TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazon </t>
+  </si>
+  <si>
+    <t>Multi select grid</t>
+  </si>
+  <si>
+    <t>MRG</t>
+  </si>
+  <si>
+    <t>E12_R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barnes &amp; Noble </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flipkart </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Myntra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JioMart </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pepperfry </t>
+  </si>
+  <si>
+    <t>E12_R2</t>
+  </si>
+  <si>
+    <t>E12_R3</t>
+  </si>
+  <si>
+    <t>E12_R4</t>
+  </si>
+  <si>
+    <t>E12_R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customer Support</t>
+  </si>
+  <si>
+    <t>OEG</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delivery Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Website Usability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petrol </t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vegetables </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groceries </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5 points scale rating</t>
   </si>
   <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Row 1 </t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Row 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Row 3 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7 points scale rating</t>
   </si>
   <si>
+    <t>E27</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10 points scale rating</t>
   </si>
   <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LINE </t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WhatsApp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Any other messenger (WeChat, messenger etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Facebook </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other social media </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google and other search engines </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columns 1 </t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columns 2 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Net Promoter Score (NPS)</t>
   </si>
   <si>
-    <t>OE</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>SRG</t>
-  </si>
-  <si>
-    <t>MRG</t>
-  </si>
-  <si>
-    <t>OEG</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>ranking</t>
-  </si>
-  <si>
     <t>NPS</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>Single select grid</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>categorical</t>
-  </si>
-  <si>
-    <t>Multi select grid</t>
-  </si>
-  <si>
-    <t>E12_R1</t>
-  </si>
-  <si>
-    <t>E12_R2</t>
-  </si>
-  <si>
-    <t>E12_R3</t>
-  </si>
-  <si>
-    <t>E12_R4</t>
-  </si>
-  <si>
-    <t>E12_R5</t>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E26</t>
-  </si>
-  <si>
-    <t>E27</t>
-  </si>
-  <si>
-    <t>E28</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>E30</t>
   </si>
   <si>
-    <t xml:space="preserve"> Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Health and fitness</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Financial stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Social life</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Exercise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Watching TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customer Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Product Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delivery Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Website Usability</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amazon </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barnes &amp; Noble </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flipkart </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Myntra </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JioMart </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pepperfry </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Petrol </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity Bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Water Bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vegetables </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Groceries </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WhatsApp </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Any other messenger (WeChat, messenger etc.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Facebook </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other social media </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Google and other search engines </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 2 </t>
-  </si>
-  <si>
-    <t>E10:Multi select</t>
+    <t>label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -723,9 +1194,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -746,9 +1220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -786,7 +1260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -820,7 +1294,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -855,10 +1328,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1032,16 +1504,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1050,1606 +1520,4451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>342</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>347</v>
       </c>
       <c r="G60" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>347</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>347</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="G68" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="G69" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="G71" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="G72" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="G73" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>359</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="G74" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="G75" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="G77" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="G86" t="s">
-        <v>157</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="G87" t="s">
-        <v>157</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C88" t="s">
         <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="G88" t="s">
-        <v>157</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s">
+        <v>311</v>
+      </c>
+      <c r="E89" t="s">
+        <v>368</v>
+      </c>
+      <c r="G89" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C302"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>82</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>92</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>94</v>
       </c>
-      <c r="B89" t="s">
-        <v>203</v>
-      </c>
-      <c r="C89" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G89" t="s">
-        <v>157</v>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>96</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>100</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>10</v>
+      </c>
+      <c r="C194" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>102</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>104</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>108</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>112</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>114</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>116</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>118</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>120</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>122</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>124</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>128</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>130</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>140</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>144</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>8</v>
+      </c>
+      <c r="C248" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>13</v>
+      </c>
+      <c r="C253" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>14</v>
+      </c>
+      <c r="C254" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>15</v>
+      </c>
+      <c r="C255" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>16</v>
+      </c>
+      <c r="C256" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>148</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>8</v>
+      </c>
+      <c r="C264" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>10</v>
+      </c>
+      <c r="C266" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>14</v>
+      </c>
+      <c r="C270" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>15</v>
+      </c>
+      <c r="C271" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>16</v>
+      </c>
+      <c r="C272" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>152</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>154</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>158</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>8</v>
+      </c>
+      <c r="C291" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>10</v>
+      </c>
+      <c r="C293" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>13</v>
+      </c>
+      <c r="C296" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>15</v>
+      </c>
+      <c r="C298" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>16</v>
+      </c>
+      <c r="C299" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>17</v>
+      </c>
+      <c r="C300" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>18</v>
+      </c>
+      <c r="C301" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>19</v>
+      </c>
+      <c r="C302" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>